--- a/dna_source_plates/cargo_plates/sw_src004_polyAgridiron.xlsx
+++ b/dna_source_plates/cargo_plates/sw_src004_polyAgridiron.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/Shih_Lab_Postdoc/research_projects/crisscross_code/cargo_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/dna_source_plates/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BB293-A1F5-0B42-99F3-473869C55E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A602ECC-8A2C-7749-AF21-30E3BF075236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="140">
   <si>
     <t>sw_src004</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>SSW042DoublePurification3primetoehold_h2_pos32</t>
-  </si>
-  <si>
-    <t>sw_src005</t>
   </si>
   <si>
     <t>NAX</t>
@@ -1937,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1952,7 +1949,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2611,8 +2608,8 @@
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" zoomScale="50" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3409,9 +3406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0930C350-316C-EA4B-A0EA-75FB866EE6DB}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="107" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
-    </sheetView>
+    <sheetView zoomScale="41" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3419,8 +3414,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>138</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -3500,76 +3495,76 @@
         <v>25</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -3577,42 +3572,42 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="33"/>
       <c r="K3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
       <c r="N3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
       <c r="T3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U3" s="32"/>
       <c r="V3" s="32"/>
       <c r="W3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X3" s="32"/>
       <c r="Y3" s="32"/>
@@ -3623,10 +3618,10 @@
         <v>61</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
